--- a/Track_of_Submmission_Score.xlsx
+++ b/Track_of_Submmission_Score.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>File Name</t>
   </si>
@@ -56,21 +56,12 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Expect Ticket</t>
-  </si>
-  <si>
-    <t>Machine Learning</t>
-  </si>
-  <si>
     <t>train_all_feature_engi_1</t>
   </si>
   <si>
     <t>train_all_feature_engi_2</t>
   </si>
   <si>
-    <t>Including Names</t>
-  </si>
-  <si>
     <t>Including Ticket</t>
   </si>
   <si>
@@ -83,10 +74,22 @@
     <t>Support Vector Machines</t>
   </si>
   <si>
-    <t>training validation - auc</t>
-  </si>
-  <si>
     <t>test validation - auc</t>
+  </si>
+  <si>
+    <t>Model2</t>
+  </si>
+  <si>
+    <t>Avg Neural Network</t>
+  </si>
+  <si>
+    <t>Including Names(Title), Family</t>
+  </si>
+  <si>
+    <t>Expect Ticket, Name, Proper Dummy Variables</t>
+  </si>
+  <si>
+    <t>training validation - accuracy</t>
   </si>
 </sst>
 </file>
@@ -142,12 +145,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0">
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0">
+  <tableColumns count="7">
+    <tableColumn id="7" name="Model"/>
     <tableColumn id="1" name="File Name"/>
-    <tableColumn id="2" name="Model"/>
+    <tableColumn id="2" name="Model2"/>
     <tableColumn id="3" name="Comments"/>
-    <tableColumn id="4" name="training validation - auc"/>
+    <tableColumn id="4" name="training validation - accuracy"/>
     <tableColumn id="5" name="test validation - auc"/>
     <tableColumn id="6" name="test submission score"/>
   </tableColumns>
@@ -452,207 +456,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>0.77645690000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.76554999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B11" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -660,27 +706,36 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Track_of_Submmission_Score.xlsx
+++ b/Track_of_Submmission_Score.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FunXExcel Channel\17. Kaggle\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FunXExcel Channel\17. Kaggle\GitHub\Kaggle_Titanic_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>File Name</t>
   </si>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G16" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="7" name="Model"/>
     <tableColumn id="1" name="File Name"/>
@@ -456,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -676,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -690,51 +690,9 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
         <v>12</v>
       </c>
     </row>
